--- a/IMPORTANT/MEMO BIG.xlsx
+++ b/IMPORTANT/MEMO BIG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>DATE</t>
   </si>
@@ -51,7 +51,16 @@
     <t>HINDUSTAN TOYS</t>
   </si>
   <si>
-    <t>CUSTOMER NAME - SAGAR UNCLE</t>
+    <t xml:space="preserve">CUSTOMER NAME - TOY GALLERY </t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>INSURANCE</t>
+  </si>
+  <si>
+    <t>GS</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1086,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,50 +1155,68 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44562</v>
+        <v>44547</v>
       </c>
       <c r="B5" s="8">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="8">
+        <v>290</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>10000</v>
+        <v>-290</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>44547</v>
+      </c>
+      <c r="B6" s="8">
+        <v>168909</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44573</v>
+      </c>
+      <c r="G6" s="8">
+        <v>50000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>10000</v>
+        <v>168619</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44584</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="16">
+        <v>550</v>
+      </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="51"/>
+      <c r="D7" s="51" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>10000</v>
+        <v>169169</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
@@ -1197,31 +1224,39 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>44547</v>
+      </c>
+      <c r="B8" s="16">
+        <v>46965</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>10000</v>
+        <v>216134</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44584</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="53"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13">
+        <v>100</v>
+      </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>10000</v>
+        <v>216234</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
@@ -1229,31 +1264,39 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="53">
+        <v>44576</v>
+      </c>
+      <c r="B10" s="13">
+        <v>103375</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319609</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="53"/>
-      <c r="B11" s="17"/>
+      <c r="B11" s="17">
+        <v>250</v>
+      </c>
       <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1269,7 +1312,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1285,7 +1328,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1301,7 +1344,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1317,7 +1360,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1333,7 +1376,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1349,7 +1392,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1365,7 +1408,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1381,7 +1424,7 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1397,7 +1440,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1413,7 +1456,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
@@ -1429,7 +1472,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1445,7 +1488,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1461,7 +1504,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1477,7 +1520,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1493,7 +1536,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1509,7 +1552,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1525,7 +1568,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1541,7 +1584,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1557,7 +1600,7 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1573,7 +1616,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1589,7 +1632,7 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1605,7 +1648,7 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1622,7 +1665,7 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
@@ -1647,7 +1690,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>10000</v>
+        <v>370149</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1655,7 +1698,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>50290</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1678,7 +1721,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>10000</v>
+        <v>319859</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/MEMO BIG.xlsx
+++ b/IMPORTANT/MEMO BIG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -51,16 +51,7 @@
     <t>HINDUSTAN TOYS</t>
   </si>
   <si>
-    <t xml:space="preserve">CUSTOMER NAME - TOY GALLERY </t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>INSURANCE</t>
-  </si>
-  <si>
-    <t>GS</t>
+    <t>CUSTOMER NAME -</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1154,153 +1145,115 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44547</v>
-      </c>
-      <c r="B5" s="8">
-        <v>50000</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="8">
-        <v>290</v>
-      </c>
+      <c r="D5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-290</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>37</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44547</v>
-      </c>
-      <c r="B6" s="8">
-        <v>168909</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44573</v>
-      </c>
-      <c r="G6" s="8">
-        <v>50000</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>168619</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>37</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
-      <c r="B7" s="16">
-        <v>550</v>
-      </c>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="51" t="s">
-        <v>13</v>
-      </c>
+      <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>169169</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44547</v>
-      </c>
-      <c r="B8" s="16">
-        <v>46965</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>216134</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>37</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="53"/>
-      <c r="B9" s="13">
-        <v>100</v>
-      </c>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>216234</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53">
-        <v>44576</v>
-      </c>
-      <c r="B10" s="13">
-        <v>103375</v>
-      </c>
+      <c r="A10" s="53"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>319609</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="53"/>
-      <c r="B11" s="17">
-        <v>250</v>
-      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,11 +1265,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1328,11 +1281,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,11 +1297,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,11 +1313,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,11 +1329,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,11 +1345,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,11 +1361,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,11 +1377,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,11 +1393,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,11 +1409,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,11 +1425,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,11 +1441,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,11 +1457,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,11 +1473,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,11 +1489,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,11 +1505,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,11 +1521,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,11 +1537,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,11 +1553,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,11 +1569,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1632,11 +1585,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1648,11 +1601,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1665,11 +1618,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44584</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1690,7 +1643,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>370149</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1698,7 +1651,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>50290</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1721,7 +1674,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>319859</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/MEMO BIG.xlsx
+++ b/IMPORTANT/MEMO BIG.xlsx
@@ -51,7 +51,7 @@
     <t>HINDUSTAN TOYS</t>
   </si>
   <si>
-    <t>CUSTOMER NAME -</t>
+    <t xml:space="preserve">CUSTOMER NAME -  </t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44596</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/MEMO BIG.xlsx
+++ b/IMPORTANT/MEMO BIG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -51,7 +51,13 @@
     <t>HINDUSTAN TOYS</t>
   </si>
   <si>
-    <t xml:space="preserve">CUSTOMER NAME -  </t>
+    <t>CUSTOMER NAME -  SAAKET KANSABEL</t>
+  </si>
+  <si>
+    <t>BHAADA LESS</t>
+  </si>
+  <si>
+    <t>BATTERY REFUND</t>
   </si>
 </sst>
 </file>
@@ -1076,8 +1082,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,51 +1151,79 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>45367</v>
+      </c>
+      <c r="B5" s="8">
+        <v>44195</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>45367</v>
+      </c>
+      <c r="G5" s="8">
+        <v>17000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>-9365</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44795</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="50"/>
+      <c r="A6" s="7">
+        <v>45394</v>
+      </c>
+      <c r="B6" s="8">
+        <v>16265</v>
+      </c>
+      <c r="C6" s="50">
+        <v>310</v>
+      </c>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>45372</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5200</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>7210</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44795</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="49">
+        <v>45418</v>
+      </c>
+      <c r="B7" s="16">
+        <v>23085</v>
+      </c>
+      <c r="C7" s="9">
+        <v>620</v>
+      </c>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>45374</v>
+      </c>
+      <c r="G7" s="16">
+        <v>10000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44795</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1197,15 +1231,19 @@
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1160</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1213,15 +1251,19 @@
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="16">
+        <v>200</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,15 +1271,19 @@
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="15">
+        <v>45393</v>
+      </c>
+      <c r="G10" s="16">
+        <v>20000</v>
+      </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,11 +1295,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,11 +1311,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1281,11 +1327,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,11 +1343,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1313,11 +1359,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1375,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1391,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1407,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1423,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1439,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1455,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1471,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1487,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1503,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1519,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1535,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1551,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1567,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1583,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1599,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1615,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1631,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1647,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1664,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>45420</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1643,7 +1689,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>84475</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1651,7 +1697,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>53560</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1674,7 +1720,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>30915</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
